--- a/results/ranking_voters=10_projects=15.xlsx
+++ b/results/ranking_voters=10_projects=15.xlsx
@@ -521,52 +521,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -574,52 +574,52 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -627,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>9</v>
@@ -636,43 +636,43 @@
         <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
         <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -680,52 +680,52 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -733,52 +733,52 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
         <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
         <v>11</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -786,52 +786,52 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
         <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -839,52 +839,52 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
         <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -892,52 +892,52 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -945,52 +945,52 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
         <v>10</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -998,49 +998,49 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q11" t="n">
         <v>6</v>
@@ -1051,52 +1051,52 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -1104,52 +1104,52 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N13" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
         <v>7</v>
       </c>
       <c r="P13" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1157,52 +1157,52 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>14</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M14" t="n">
         <v>12</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P14" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1210,52 +1210,52 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L15" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1263,49 +1263,49 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M16" t="n">
         <v>14</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O16" t="n">
         <v>14</v>
       </c>
       <c r="P16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q16" t="n">
         <v>14</v>
